--- a/flume-es-kibana.xlsx
+++ b/flume-es-kibana.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1168" yWindow="109" windowWidth="14808" windowHeight="8015"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="流程图" sheetId="1" r:id="rId1"/>
+    <sheet name="flume配置样例" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,6 +69,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -73,16 +80,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594145</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>18511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317022</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>125262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -91,8 +98,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2000251" y="2333625"/>
-          <a:ext cx="1085850" cy="628650"/>
+          <a:off x="3078553" y="2313137"/>
+          <a:ext cx="965080" cy="598457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -131,16 +138,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440846</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>459896</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28035</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -149,8 +156,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2524125" y="3009900"/>
-          <a:ext cx="19050" cy="533400"/>
+          <a:off x="3546355" y="2959219"/>
+          <a:ext cx="19050" cy="510756"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -178,16 +185,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>583721</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297972</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>125262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -196,8 +203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1981201" y="3533775"/>
-          <a:ext cx="1085850" cy="628650"/>
+          <a:off x="3068129" y="3460450"/>
+          <a:ext cx="956454" cy="598457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -236,16 +243,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450372</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>163362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>459896</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>144312</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -254,8 +261,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2533651" y="4200525"/>
-          <a:ext cx="9524" cy="495300"/>
+          <a:off x="3555881" y="4097007"/>
+          <a:ext cx="9524" cy="472656"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -283,16 +290,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>593246</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>307497</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>115737</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -301,8 +308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1990726" y="4724400"/>
-          <a:ext cx="1085850" cy="628650"/>
+          <a:off x="3077654" y="4598238"/>
+          <a:ext cx="956454" cy="598457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -341,16 +348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>545979</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>77637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>545081</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>39537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -359,8 +366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3409949" y="57150"/>
-          <a:ext cx="4791076" cy="819150"/>
+          <a:off x="4893692" y="77637"/>
+          <a:ext cx="4346815" cy="781409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -552,16 +559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>522437</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>39537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>46187</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>125262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -570,8 +577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3343275" y="1562100"/>
-          <a:ext cx="5695950" cy="1114425"/>
+          <a:off x="4870150" y="1514654"/>
+          <a:ext cx="5113667" cy="1069136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,16 +784,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>497995</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>115737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>374172</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66135</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -795,8 +802,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1895475" y="1066800"/>
-          <a:ext cx="1247776" cy="628650"/>
+          <a:off x="2982403" y="1099148"/>
+          <a:ext cx="1118380" cy="606006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -842,16 +849,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>459896</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>115737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>478946</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>134787</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -860,8 +867,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2543175" y="1752600"/>
-          <a:ext cx="19050" cy="533400"/>
+          <a:off x="3565405" y="1754756"/>
+          <a:ext cx="19050" cy="510756"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -889,16 +896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8086</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>125262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217637</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>39537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -907,8 +914,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3514725" y="3705225"/>
-          <a:ext cx="5695950" cy="1114425"/>
+          <a:off x="4976901" y="3567202"/>
+          <a:ext cx="5178366" cy="1061588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,16 +1120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408137</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>20487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>103336</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>58587</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1131,8 +1138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9401175" y="685800"/>
-          <a:ext cx="1752600" cy="552450"/>
+          <a:off x="10345767" y="676095"/>
+          <a:ext cx="1558505" cy="529805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,11 +1240,1325 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85186</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>73503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146649</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34504</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1948492" y="1876424"/>
+          <a:ext cx="682565" cy="288805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>source</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>108190</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>169653</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>117894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971496" y="2287617"/>
+          <a:ext cx="682565" cy="288805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>channel</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>113940</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175403</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>97766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1977246" y="2759195"/>
+          <a:ext cx="682565" cy="288805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>sink</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43131</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>155275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43131" y="1466490"/>
+          <a:ext cx="1656273" cy="672860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>selector:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>replication</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>multiplexing</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>149526</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文本框 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3096882"/>
+          <a:ext cx="2633934" cy="301925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sinkgroups.processor.type = load_balance</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8626</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>155276</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60384</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="组合 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1250830" y="336429"/>
+          <a:ext cx="2009955" cy="3165895"/>
+          <a:chOff x="1250830" y="336429"/>
+          <a:chExt cx="2009955" cy="3165895"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="矩形 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1250830" y="336429"/>
+            <a:ext cx="2009955" cy="3165895"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>source</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="矩形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1751162" y="810884"/>
+            <a:ext cx="776377" cy="250166"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>S1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="矩形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1774166" y="1351473"/>
+            <a:ext cx="776377" cy="250166"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>S2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1788543" y="1866182"/>
+            <a:ext cx="776377" cy="250166"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>S3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>126521</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273170</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57508</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="组合 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3853132" y="333553"/>
+          <a:ext cx="2009955" cy="3165895"/>
+          <a:chOff x="1250830" y="336429"/>
+          <a:chExt cx="2009955" cy="3165895"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="矩形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1250830" y="336429"/>
+            <a:ext cx="2009955" cy="3165895"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>channel</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="矩形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1751162" y="810884"/>
+            <a:ext cx="776377" cy="250166"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>c1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="矩形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1774166" y="1351473"/>
+            <a:ext cx="776377" cy="250166"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>c2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="矩形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1788543" y="1866182"/>
+            <a:ext cx="776377" cy="250166"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>c3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>454324</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600973</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74762</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="组合 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6665343" y="350807"/>
+          <a:ext cx="2009955" cy="3165895"/>
+          <a:chOff x="1250830" y="336429"/>
+          <a:chExt cx="2009955" cy="3165895"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="矩形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1250830" y="336429"/>
+            <a:ext cx="2009955" cy="3165895"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>sink</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="矩形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1751162" y="810884"/>
+            <a:ext cx="776377" cy="250166"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>k1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="矩形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1774166" y="1351473"/>
+            <a:ext cx="776377" cy="250166"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>k2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="矩形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1788543" y="1866182"/>
+            <a:ext cx="776377" cy="250166"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>k3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>301924</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>293298</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2786332" y="940279"/>
+          <a:ext cx="1233577" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>23003</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14376</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117895</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5612920" y="937404"/>
+          <a:ext cx="1233577" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>86265</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8627</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>43132</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="文本框 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="86265" y="3623093"/>
+          <a:ext cx="9859992" cy="6418054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources = s1 s2 s3agent.channels = c1 c2 c3agent.sinks = k1 k2 k3agent.sources.s1.type = execagent.sources.s1.shell = /bin/bash -cagent.sources.s1.command = tail -F -n 1 /root/cmscp/cmscp17/flume-monitor.logagent.sources.s1.channels = c1agent.sources.s1.threads = 5agent.sources.s1.interceptors = i1 i2 i3 i4agent.sources.s1.interceptors.i1.type = timestampagent.sources.s1.interceptors.i2.type = staticagent.sources.s1.interceptors.i2.key = hostnameagent.sources.s1.interceptors.i2.value = 10.245.0.78agent.sources.s1.interceptors.i3.type = staticagent.sources.s1.interceptors.i3.key = appnameagent.sources.s1.interceptors.i3.value = esb-&gt;jkptagent.sources.s1.interceptors.i4.type = staticagent.sources.s1.interceptors.i4.key = logtypeagent.sources.s1.interceptors.i4.value = monitoragent.channels.c1.type = org.apache.flume.channel.kafka.KafkaChannelagent.channels.c1.kafka.bootstrap.servers = 10.245.6.194:9092,10.245.6.193:9092,10.245.6.192:9092agent.channels.c1.kafka.topic = flumemonitoragent.channels.c1.kafka.consumer.group.id = test-consumer-groupagent.channels.c1.parseAsFlumeEvent = trueagent.channels.c1.partitionIdHeader = keyagent.sinks.k1.type = elasticsearchagent.sinks.k1.hostNames = 10.245.6.193:9100,10.245.6.192:9100,10.245.6.190:9100,10.245.6.194:9100agent.sinks.k1.indexName = flumemonitoragent.sinks.k1.indexType = logagent.sinks.k1.clusterName = oss20-esagent.sinks.k1.batchSize = 2000agent.sinks.k1.ttl = 1dagent.sinks.k1.serializer = org.apache.flume.sink.elasticsearch.ElasticSearchLogStashEventSerializeragent.sinks.k1.channel = c1agent.sources.s2.type = execagent.sources.s2.shell = /bin/bash -cagent.sources.s2.command = tail -F /var/log/secureagent.sources.s2.channels = c2agent.sources.s2.threads = 5agent.sources.s2.interceptors = i1 i2 i3 i4agent.sources.s2.interceptors.i1.type = timestampagent.sources.s2.interceptors.i2.type = staticagent.sources.s2.interceptors.i2.key = hostnameagent.sources.s2.interceptors.i2.value = 10.245.0.78agent.sources.s2.interceptors.i3.type = staticagent.sources.s2.interceptors.i3.key = appnameagent.sources.s2.interceptors.i3.value = esb-&gt;jkptagent.sources.s2.interceptors.i4.type = staticagent.sources.s2.interceptors.i4.key = logtypeagent.sources.s2.interceptors.i4.value = secureagent.channels.c2.type = org.apache.flume.channel.kafka.KafkaChannelagent.channels.c2.kafka.bootstrap.servers = 10.245.6.194:9092,10.245.6.193:9092,10.245.6.192:9092agent.channels.c2.kafka.topic = esb-jkpt-secureagent.channels.c2.kafka.consumer.group.id = test-consumer-groupagent.channels.c2.parseAsFlumeEvent = trueagent.channels.c2.partitionIdHeader = keyagent.sinks.k2.type = elasticsearchagent.sinks.k2.hostNames = 10.245.6.193:9100,10.245.6.192:9100,10.245.6.190:9100,10.245.6.194:9100agent.sinks.k2.indexName = esb-jkptagent.sinks.k2.indexType = secureagent.sinks.k2.clusterName = oss20-esagent.sinks.k2.batchSize = 2000agent.sinks.k2.serializer = org.apache.flume.sink.elasticsearch.ElasticSearchLogStashEventSerializeragent.sinks.k2.channel = c2agent.sources.s3.type = execagent.sources.s3.shell = /bin/bash -cagent.sources.s3.command = tail -F /home/tsaip/nginx/logs/access.logagent.sources.s3.channels = c3agent.sources.s3.threads = 5agent.sources.s3.interceptors = i1 i2 i3 i4agent.sources.s3.interceptors.i1.type = timestampagent.sources.s3.interceptors.i2.type = staticagent.sources.s3.interceptors.i2.key = hostnameagent.sources.s3.interceptors.i2.value = 10.245.0.78agent.sources.s3.interceptors.i3.type = staticagent.sources.s3.interceptors.i3.key = appnameagent.sources.s3.interceptors.i3.value = esb-&gt;jkptagent.sources.s3.interceptors.i4.type = staticagent.sources.s3.interceptors.i4.key = logtypeagent.sources.s3.interceptors.i4.value = accessagent.channels.c3.type = org.apache.flume.channel.kafka.KafkaChannelagent.channels.c3.kafka.bootstrap.servers = 10.245.6.194:9092,10.245.6.193:9092,10.245.6.192:9092agent.channels.c3.kafka.topic = esb-jkpt-accessagent.channels.c3.kafka.consumer.group.id = test-consumer-groupagent.channels.c3.parseAsFlumeEvent = trueagent.channels.c3.partitionIdHeader = keyagent.sinks.k3.type = elasticsearchagent.sinks.k3.hostNames = 10.245.6.193:9100,10.245.6.192:9100,10.245.6.190:9100,10.245.6.194:9100agent.sinks.k3.indexName = esb-jkptagent.sinks.k3.indexType = accessagent.sinks.k3.clusterName = oss20-esagent.sinks.k3.batchSize = 2000agent.sinks.k3.serializer = org.apache.flume.sink.elasticsearch.ElasticSearchLogStashEventSerializeragent.sinks.k3.channel = c3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>290422</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281796</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14377</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2774830" y="1489494"/>
+          <a:ext cx="1233577" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11501</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2874</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11502</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5601418" y="1486619"/>
+          <a:ext cx="1233577" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339305</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330679</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54633</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2823713" y="2021456"/>
+          <a:ext cx="1233577" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60384</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>51757</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51758</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5650301" y="2018581"/>
+          <a:ext cx="1233577" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1279,7 +2600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1314,7 +2635,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1526,10 +2847,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1542,12 +2863,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1557,7 +2881,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flume-es-kibana.xlsx
+++ b/flume-es-kibana.xlsx
@@ -1,27 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1168" yWindow="109" windowWidth="14808" windowHeight="8015"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="流程图" sheetId="1" r:id="rId1"/>
     <sheet name="flume配置样例" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="kafka" sheetId="3" r:id="rId3"/>
+    <sheet name="ElasticSearch" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">./kafka-topics.sh -zookeeper 127.0.0.1:2181 -describe -topic testKJ1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./kafka-topics.sh --list --zookeeper 127.0.0.1:2181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./kafka-reassign-partitions.sh -zookeeper 127.0.0.1:2181 -reassignment-json-file json/partitions-to-move.json -execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、创建topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./kafka-topics.sh --create --zookeeper localhost:2181 --replication-factor 1 --partitions 1 --topic testKJ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、为topic增加partition.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /bin/kafka-topics.sh –zookeeper 127.0.0.1:2181 –alter –partitions 20 –topic testKJ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、kafka生产者客户端命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./kafka-console-producer.sh --broker-list localhost:9092 --topic testKJ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、kafka消费者客户端命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./kafka-console-consumer.sh -zookeeper localhost:2181 --from-beginning --topic testKJ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、kafka服务启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">./kafka-server-start.sh -daemon ../config/server.properties
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、下线broker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./kafka-run-class.sh kafka.admin.ShutdownBroker --zookeeper 127.0.0.1:2181 --broker #brokerId# --num.retries 3 --retry.interval.ms 60shutdown broker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、删除topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./kafka-run-class.sh kafka.admin.DeleteTopicCommand --topic testKJ1 --zookeeper 127.0.0.1:2181./kafka-topics.sh --zookeeper localhost:2181 --delete --topic testKJ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、查看consumer组内消费的offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">./kafka-run-class.sh kafka.tools.ConsumerOffsetChecker --zookeeper localhost:2181 --group test --topic testKJ1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、为topic增加副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的详细信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,6 +179,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,8 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -128,7 +298,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Flume</a:t>
+            <a:t>kafka</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -139,15 +309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>440846</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>8985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>459896</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28035</xdr:rowOff>
+      <xdr:colOff>440846</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -155,9 +325,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3546355" y="2959219"/>
-          <a:ext cx="19050" cy="510756"/>
+        <a:xfrm flipH="1">
+          <a:off x="3867150" y="3095085"/>
+          <a:ext cx="2696" cy="438690"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -244,15 +414,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>450372</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>163362</xdr:rowOff>
+      <xdr:colOff>469422</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>20487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>459896</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>144312</xdr:rowOff>
+      <xdr:colOff>478946</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -261,8 +431,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3555881" y="4097007"/>
-          <a:ext cx="9524" cy="472656"/>
+          <a:off x="3898422" y="4306737"/>
+          <a:ext cx="9524" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -338,7 +508,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>kibana</a:t>
+            <a:t>storm</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -349,13 +519,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>545979</xdr:colOff>
+      <xdr:colOff>469779</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>77637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>545081</xdr:colOff>
+      <xdr:colOff>468881</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>39537</xdr:rowOff>
     </xdr:to>
@@ -366,8 +536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4893692" y="77637"/>
-          <a:ext cx="4346815" cy="781409"/>
+          <a:off x="5270379" y="77637"/>
+          <a:ext cx="4799702" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -560,15 +730,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>522437</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>39537</xdr:rowOff>
+      <xdr:colOff>446237</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>46187</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>125262</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>655787</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>20487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -577,8 +747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4870150" y="1514654"/>
-          <a:ext cx="5113667" cy="1069136"/>
+          <a:off x="5246837" y="963462"/>
+          <a:ext cx="5695950" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -850,15 +1020,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>459896</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>115737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>478946</xdr:colOff>
+      <xdr:colOff>459896</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>134787</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -866,9 +1036,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3565405" y="1754756"/>
-          <a:ext cx="19050" cy="510756"/>
+        <a:xfrm flipH="1">
+          <a:off x="3876675" y="1830237"/>
+          <a:ext cx="12221" cy="484338"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -896,16 +1066,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>8086</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>125262</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>465286</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>96687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>217637</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>39537</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>674837</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10962</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -914,8 +1084,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4976901" y="3567202"/>
-          <a:ext cx="5178366" cy="1061588"/>
+          <a:off x="5265886" y="2325537"/>
+          <a:ext cx="5695951" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1120,137 +1290,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>408137</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>20487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>103336</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>58587</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10345767" y="676095"/>
-          <a:ext cx="1558505" cy="529805"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>flume</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>拦截器</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>interceptors </a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>85186</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>228061</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>146649</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>289524</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>34504</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1260,8 +1308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1948492" y="1876424"/>
-          <a:ext cx="682565" cy="288805"/>
+          <a:off x="2285461" y="1445103"/>
+          <a:ext cx="747263" cy="303901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1301,15 +1349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>108190</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>156892</xdr:rowOff>
+      <xdr:colOff>212965</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>169653</xdr:colOff>
+      <xdr:colOff>274428</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>117894</xdr:rowOff>
+      <xdr:rowOff>155994</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1318,8 +1366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971496" y="2287617"/>
-          <a:ext cx="682565" cy="288805"/>
+          <a:off x="2270365" y="2423842"/>
+          <a:ext cx="747263" cy="303902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1359,15 +1407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>113940</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>136765</xdr:rowOff>
+      <xdr:colOff>218715</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>70090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>175403</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>97766</xdr:rowOff>
+      <xdr:colOff>280178</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31091</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1376,8 +1424,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1977246" y="2759195"/>
-          <a:ext cx="682565" cy="288805"/>
+          <a:off x="2276115" y="3670540"/>
+          <a:ext cx="747263" cy="303901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1416,84 +1464,56 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>43131</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>155275</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>515429</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>8625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>229680</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>113940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 2"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43131" y="1466490"/>
-          <a:ext cx="1656273" cy="672860"/>
+          <a:off x="4630229" y="4807788"/>
+          <a:ext cx="1085851" cy="621102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>selector:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>replication</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>multiplexing</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日志分析引擎</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1501,75 +1521,154 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146648</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>458279</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>159588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>149526</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>120769</xdr:rowOff>
+      <xdr:colOff>172530</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="文本框 20"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3096882"/>
-          <a:ext cx="2633934" cy="301925"/>
+          <a:off x="1829879" y="4788738"/>
+          <a:ext cx="1085851" cy="621102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>kibana</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2600325" y="4324350"/>
+          <a:ext cx="742950" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>sinkgroups.processor.type = load_balance</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333876" y="4343400"/>
+          <a:ext cx="714374" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1580,13 +1679,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8626</xdr:colOff>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>8625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>155276</xdr:colOff>
+      <xdr:colOff>155274</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>60384</xdr:rowOff>
     </xdr:to>
@@ -1597,8 +1696,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1250830" y="336429"/>
-          <a:ext cx="2009955" cy="3165895"/>
+          <a:off x="1904999" y="351525"/>
+          <a:ext cx="1679275" cy="3309309"/>
           <a:chOff x="1250830" y="336429"/>
           <a:chExt cx="2009955" cy="3165895"/>
         </a:xfrm>
@@ -1790,13 +1889,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>126521</xdr:colOff>
+      <xdr:colOff>126522</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>5749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>273170</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57508</xdr:rowOff>
     </xdr:to>
@@ -1807,8 +1906,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3853132" y="333553"/>
-          <a:ext cx="2009955" cy="3165895"/>
+          <a:off x="4241322" y="348649"/>
+          <a:ext cx="1940404" cy="3309309"/>
           <a:chOff x="1250830" y="336429"/>
           <a:chExt cx="2009955" cy="3165895"/>
         </a:xfrm>
@@ -2017,8 +2116,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6665343" y="350807"/>
-          <a:ext cx="2009955" cy="3165895"/>
+          <a:off x="7312324" y="365903"/>
+          <a:ext cx="2204049" cy="3309309"/>
           <a:chOff x="1250830" y="336429"/>
           <a:chExt cx="2009955" cy="3165895"/>
         </a:xfrm>
@@ -2306,13 +2405,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>86265</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>17251</xdr:rowOff>
+      <xdr:rowOff>17250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>8627</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>43132</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2321,8 +2420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="86265" y="3623093"/>
-          <a:ext cx="9859992" cy="6418054"/>
+          <a:off x="86265" y="3789150"/>
+          <a:ext cx="4895309" cy="6859799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2358,9 +2457,368 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>agent.sources = s1 s2 s3agent.channels = c1 c2 c3agent.sinks = k1 k2 k3agent.sources.s1.type = execagent.sources.s1.shell = /bin/bash -cagent.sources.s1.command = tail -F -n 1 /root/cmscp/cmscp17/flume-monitor.logagent.sources.s1.channels = c1agent.sources.s1.threads = 5agent.sources.s1.interceptors = i1 i2 i3 i4agent.sources.s1.interceptors.i1.type = timestampagent.sources.s1.interceptors.i2.type = staticagent.sources.s1.interceptors.i2.key = hostnameagent.sources.s1.interceptors.i2.value = 10.245.0.78agent.sources.s1.interceptors.i3.type = staticagent.sources.s1.interceptors.i3.key = appnameagent.sources.s1.interceptors.i3.value = esb-&gt;jkptagent.sources.s1.interceptors.i4.type = staticagent.sources.s1.interceptors.i4.key = logtypeagent.sources.s1.interceptors.i4.value = monitoragent.channels.c1.type = org.apache.flume.channel.kafka.KafkaChannelagent.channels.c1.kafka.bootstrap.servers = 10.245.6.194:9092,10.245.6.193:9092,10.245.6.192:9092agent.channels.c1.kafka.topic = flumemonitoragent.channels.c1.kafka.consumer.group.id = test-consumer-groupagent.channels.c1.parseAsFlumeEvent = trueagent.channels.c1.partitionIdHeader = keyagent.sinks.k1.type = elasticsearchagent.sinks.k1.hostNames = 10.245.6.193:9100,10.245.6.192:9100,10.245.6.190:9100,10.245.6.194:9100agent.sinks.k1.indexName = flumemonitoragent.sinks.k1.indexType = logagent.sinks.k1.clusterName = oss20-esagent.sinks.k1.batchSize = 2000agent.sinks.k1.ttl = 1dagent.sinks.k1.serializer = org.apache.flume.sink.elasticsearch.ElasticSearchLogStashEventSerializeragent.sinks.k1.channel = c1agent.sources.s2.type = execagent.sources.s2.shell = /bin/bash -cagent.sources.s2.command = tail -F /var/log/secureagent.sources.s2.channels = c2agent.sources.s2.threads = 5agent.sources.s2.interceptors = i1 i2 i3 i4agent.sources.s2.interceptors.i1.type = timestampagent.sources.s2.interceptors.i2.type = staticagent.sources.s2.interceptors.i2.key = hostnameagent.sources.s2.interceptors.i2.value = 10.245.0.78agent.sources.s2.interceptors.i3.type = staticagent.sources.s2.interceptors.i3.key = appnameagent.sources.s2.interceptors.i3.value = esb-&gt;jkptagent.sources.s2.interceptors.i4.type = staticagent.sources.s2.interceptors.i4.key = logtypeagent.sources.s2.interceptors.i4.value = secureagent.channels.c2.type = org.apache.flume.channel.kafka.KafkaChannelagent.channels.c2.kafka.bootstrap.servers = 10.245.6.194:9092,10.245.6.193:9092,10.245.6.192:9092agent.channels.c2.kafka.topic = esb-jkpt-secureagent.channels.c2.kafka.consumer.group.id = test-consumer-groupagent.channels.c2.parseAsFlumeEvent = trueagent.channels.c2.partitionIdHeader = keyagent.sinks.k2.type = elasticsearchagent.sinks.k2.hostNames = 10.245.6.193:9100,10.245.6.192:9100,10.245.6.190:9100,10.245.6.194:9100agent.sinks.k2.indexName = esb-jkptagent.sinks.k2.indexType = secureagent.sinks.k2.clusterName = oss20-esagent.sinks.k2.batchSize = 2000agent.sinks.k2.serializer = org.apache.flume.sink.elasticsearch.ElasticSearchLogStashEventSerializeragent.sinks.k2.channel = c2agent.sources.s3.type = execagent.sources.s3.shell = /bin/bash -cagent.sources.s3.command = tail -F /home/tsaip/nginx/logs/access.logagent.sources.s3.channels = c3agent.sources.s3.threads = 5agent.sources.s3.interceptors = i1 i2 i3 i4agent.sources.s3.interceptors.i1.type = timestampagent.sources.s3.interceptors.i2.type = staticagent.sources.s3.interceptors.i2.key = hostnameagent.sources.s3.interceptors.i2.value = 10.245.0.78agent.sources.s3.interceptors.i3.type = staticagent.sources.s3.interceptors.i3.key = appnameagent.sources.s3.interceptors.i3.value = esb-&gt;jkptagent.sources.s3.interceptors.i4.type = staticagent.sources.s3.interceptors.i4.key = logtypeagent.sources.s3.interceptors.i4.value = accessagent.channels.c3.type = org.apache.flume.channel.kafka.KafkaChannelagent.channels.c3.kafka.bootstrap.servers = 10.245.6.194:9092,10.245.6.193:9092,10.245.6.192:9092agent.channels.c3.kafka.topic = esb-jkpt-accessagent.channels.c3.kafka.consumer.group.id = test-consumer-groupagent.channels.c3.parseAsFlumeEvent = trueagent.channels.c3.partitionIdHeader = keyagent.sinks.k3.type = elasticsearchagent.sinks.k3.hostNames = 10.245.6.193:9100,10.245.6.192:9100,10.245.6.190:9100,10.245.6.194:9100agent.sinks.k3.indexName = esb-jkptagent.sinks.k3.indexType = accessagent.sinks.k3.clusterName = oss20-esagent.sinks.k3.batchSize = 2000agent.sinks.k3.serializer = org.apache.flume.sink.elasticsearch.ElasticSearchLogStashEventSerializeragent.sinks.k3.channel = c3</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>agent.sources = s1 s2 s3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.channels = c1 c2 c3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sinks = k1 k2 k3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.type = exec</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.shell = /bin/bash -c</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.command = tail -F -n 1 /root/cmscp/cmscp17/flume-monitor.log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.channels = c1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.threads = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.interceptors = i1 i2 i3 i4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.interceptors.i1.type = timestamp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.interceptors.i2.type = static</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.interceptors.i2.key = hostname</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.interceptors.i2.value = 10.245.0.78</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.interceptors.i3.type = static</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.interceptors.i3.key = appname</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.interceptors.i3.value = esb-&gt;jkpt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.interceptors.i4.type = static</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.interceptors.i4.key = logtype</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>agent.sources.s1.interceptors.i4.value = monitor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c1.type = org.apache.flume.channel.kafka.KafkaChannel</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c1.kafka.bootstrap.servers = 10.245.6.194:9092,10.245.6.193:9092,10.245.6.192:9092</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c1.kafka.topic = flumemonitor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c1.kafka.consumer.group.id = test-consumer-group</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c1.parseAsFlumeEvent = true</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c1.partitionIdHeader = key</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k1.type = elasticsearch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k1.hostNames = 10.245.6.193:9100,10.245.6.192:9100,10.245.6.190:9100,10.245.6.194:9100</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k1.indexName = flumemonitor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k1.indexType = log</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k1.clusterName = oss20-es</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k1.batchSize = 2000</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k1.ttl = 1d</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k1.serializer = org.apache.flume.sink.elasticsearch.ElasticSearchLogStashEventSerializer</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k1.channel = c1</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2554,11 +3012,2724 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9353551" y="4419600"/>
+          <a:ext cx="5029200" cy="8010525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.type = exec</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.shell = /bin/bash -c</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.command = tail -F /home/tsaip/nginx/logs/access.log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.channels = c3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.threads = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.interceptors = i1 i2 i3 i4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.interceptors.i1.type = timestamp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.interceptors.i2.type = static</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.interceptors.i2.key = hostname</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.interceptors.i2.value = 10.245.0.78</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.interceptors.i3.type = static</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.interceptors.i3.key = appname</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.interceptors.i3.value = esb-&gt;jkpt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.interceptors.i4.type = static</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.interceptors.i4.key = logtype</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s3.interceptors.i4.value = access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c3.type = org.apache.flume.channel.kafka.KafkaChannel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c3.kafka.bootstrap.servers = 10.245.6.194:9092,10.245.6.193:9092,10.245.6.192:9092</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c3.kafka.topic = esb-jkpt-access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c3.kafka.consumer.group.id = test-consumer-group</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c3.parseAsFlumeEvent = true</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c3.partitionIdHeader = key</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k3.type = elasticsearch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k3.hostNames = 10.245.6.193:9100,10.245.6.192:9100,10.245.6.190:9100,10.245.6.194:9100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k3.indexName = esb-jkpt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k3.indexType = access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k3.clusterName = oss20-es</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k3.batchSize = 2000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k3.serializer = org.apache.flume.sink.elasticsearch.ElasticSearchLogStashEventSerializer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k3.channel = c3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733924" y="4419599"/>
+          <a:ext cx="4552951" cy="6553201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.type = exec</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.shell = /bin/bash -c</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.command = tail -F /var/log/secure</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.channels = c2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.threads = 5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.interceptors = i1 i2 i3 i4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.interceptors.i1.type = timestamp</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.interceptors.i2.type = static</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.interceptors.i2.key = hostname</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.interceptors.i2.value = 10.245.0.78</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.interceptors.i3.type = static</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.interceptors.i3.key = appname</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.interceptors.i3.value = esb-&gt;jkpt</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.interceptors.i4.type = static</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.interceptors.i4.key = logtype</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sources.s2.interceptors.i4.value = secure</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c2.type = org.apache.flume.channel.kafka.KafkaChannel</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c2.kafka.bootstrap.servers = 10.245.6.194:9092,10.245.6.193:9092,10.245.6.192:9092</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c2.kafka.topic = esb-jkpt-secure</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c2.kafka.consumer.group.id = test-consumer-group</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c2.parseAsFlumeEvent = true</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c2.partitionIdHeader = key</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k2.type = elasticsearchagent.sinks.k2.hostNames = 10.245.6.193:9100,10.245.6.192:9100,10.245.6.190:9100,10.245.6.194:9100</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k2.indexName = esb-jkpt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k2.indexType = secure</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k2.clusterName = oss20-es</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k2.batchSize = 2000</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k2.serializer = org.apache.flume.sink.elasticsearch.ElasticSearchLogStashEventSerializer</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k2.channel = c2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>24081</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9625281" y="523875"/>
+          <a:ext cx="1785669" cy="710600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>selector:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>replication</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>multiplexing</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>159051</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="文本框 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610725" y="1667773"/>
+          <a:ext cx="2892726" cy="317021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sinkgroups.processor.type = load_balance</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="600075"/>
+          <a:ext cx="1752599" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>flume</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>拦截器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>interceptors </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>46848</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6219048" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="https://images2017.cnblogs.com/blog/760273/201711/760273-20171108181730059-1009703405.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3400425"/>
+          <a:ext cx="6372225" cy="4257675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="https://images2017.cnblogs.com/blog/760273/201711/760273-20171108181923325-686894915.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6791325" y="2438400"/>
+          <a:ext cx="6981825" cy="4219575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="6819899"/>
+          <a:ext cx="7848600" cy="1695451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　在消费者消费消息时，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>kafka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>offset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>来记录当前消费的位置</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>kafka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的设计中，可以有多个不同的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>来同时消费同一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>topic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>下的消息，如图，我们有两个不同的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>同时消费，他们的的消费的记录位置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>offset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>各不项目，不互相干扰。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　对于一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>而言，消费者的数量不应该多余分区的数量，因为在一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中，每个分区至多只能绑定到一个消费者上，即一个消费者可以消费多个分区，一个分区只能给一个消费者消费</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　因此，若一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中的消费者数量大于分区数量的话，多余的消费者将不会收到任何消息。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="38100"/>
+          <a:ext cx="1228725" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>topic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>consumer group</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>partition</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>producer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>consumer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>broker</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4111447" cy="447943"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="1057275"/>
+          <a:ext cx="4111447" cy="447943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c2.kafka.consumer.group.id = test-consumer-group</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为什么要设置这个？</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="https://img-blog.csdn.net/20180123193245289?watermark/2/text/aHR0cDovL2Jsb2cuY3Nkbi5uZXQvdmFyeWFsbA==/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70/gravity/SouthEast"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5486400" y="171450"/>
+          <a:ext cx="5124450" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="4514850"/>
+          <a:ext cx="6838950" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Elasticsearch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>没有典型意义的事务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Elasticsearch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是一种面向文档的数据库。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Elasticsearch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>没有提供授权和认证特性</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Elasticsearch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中，所有的字段缺省都建了索引。 也就是说每一个字段都有一个倒排索引，用于快速查询。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>es</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>支持</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>协议（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>格式）（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9200</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>端口）、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thrift</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>servlet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>memcached</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>zeroMQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>等的传输协议（通过插件方式集成）。传统关系型数据库不支持。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>es</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>支持分片和复制，从而方便水平分割和扩展，复制保证了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>es</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的高可用与高吞吐。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="2390775"/>
+          <a:ext cx="2085975" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>es-head</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2600,7 +5771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2635,7 +5806,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2846,11 +6017,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2863,11 +6034,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2877,13 +6048,134 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="K1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="11:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/flume-es-kibana.xlsx
+++ b/flume-es-kibana.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="3016" yWindow="109" windowWidth="14808" windowHeight="8015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="流程图" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,38 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>业务系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indiex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -222,13 +254,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1696,8 +1731,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1904999" y="351525"/>
-          <a:ext cx="1679275" cy="3309309"/>
+          <a:off x="1775603" y="336429"/>
+          <a:ext cx="1485180" cy="3165895"/>
           <a:chOff x="1250830" y="336429"/>
           <a:chExt cx="2009955" cy="3165895"/>
         </a:xfrm>
@@ -1906,8 +1941,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4241322" y="348649"/>
-          <a:ext cx="1940404" cy="3309309"/>
+          <a:off x="3853133" y="333553"/>
+          <a:ext cx="1746310" cy="3165895"/>
           <a:chOff x="1250830" y="336429"/>
           <a:chExt cx="2009955" cy="3165895"/>
         </a:xfrm>
@@ -2116,8 +2151,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7312324" y="365903"/>
-          <a:ext cx="2204049" cy="3309309"/>
+          <a:off x="6665343" y="350807"/>
+          <a:ext cx="2009955" cy="3165895"/>
           <a:chOff x="1250830" y="336429"/>
           <a:chExt cx="2009955" cy="3165895"/>
         </a:xfrm>
@@ -3871,7 +3906,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3879,6 +3914,40 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>agent.channels.c2.kafka.topic = esb-jkpt-secure</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c2.kafka.consumer.group.id = test-consumer-group</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c2.parseAsFlumeEvent = true</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -3886,30 +3955,44 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>agent.channels.c2.kafka.consumer.group.id = test-consumer-group</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>agent.channels.c2.parseAsFlumeEvent = true</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.channels.c2.partitionIdHeader = key</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k2.type = elasticsearch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k2.hostNames = 10.245.6.193:9100,10.245.6.192:9100,10.245.6.190:9100,10.245.6.194:9100</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -3919,61 +4002,33 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>agent.channels.c2.partitionIdHeader = key</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>agent.sinks.k2.type = elasticsearchagent.sinks.k2.hostNames = 10.245.6.193:9100,10.245.6.192:9100,10.245.6.190:9100,10.245.6.194:9100</a:t>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k2.indexName = esb-jkpt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>agent.sinks.k2.indexType = secure</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>agent.sinks.k2.indexName = esb-jkpt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>agent.sinks.k2.indexType = secure</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -4960,6 +5015,257 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>379562</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>267418</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12732588" y="0"/>
+          <a:ext cx="6719977" cy="5020574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[aiuap_cj@OSS-safe-05 kafka]$ ./kafka_2.10-0.10.2.1/bin/kafka-topics.sh --list --zookeeper 127.0.0.1:2181</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>__consumer_offsets</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>aqgkpt-localhost_access_log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>aqgkpt-messages</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>aqgkpt-secure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>aqgkpt-vsftpd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>dzyw-dlfw-access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>dzyw-scgl-access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>dzyw-ywgl-access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>dzyw-ywgl-localhost_access_log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>esb-cjpt-secure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>esb-jkpt-access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>esb-jkpt-secure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>esb-yw-localhost_access_log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>esb-yw-secure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>flumemonitor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>jtiptvzljc-web-localhost_access_log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>jtiptvzljc-web-messages</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>jtiptvzljc-web-secure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>jtiptvzljc-web-vsftpd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>tylcpt-web-localhost_access_log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>tylcpt-web-messages</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>tylcpt-web-secure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>tylcpt-web-vsftpd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>tylcpt-wzc-localhost_access_log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>wintest-localhost_access_log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>wwl-web-localhost_access_log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>wwl-web-secure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>zdkt-access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>zygl-app-access_log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>zygl-app-secure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>zygl-app-systemout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4972,7 +5278,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4111447" cy="447943"/>
+    <xdr:ext cx="4111447" cy="631327"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -4980,8 +5286,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1133475" y="1057275"/>
-          <a:ext cx="4111447" cy="447943"/>
+          <a:off x="1068777" y="1011986"/>
+          <a:ext cx="4111447" cy="631327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5077,6 +5383,46 @@
             </a:rPr>
             <a:t>为什么要设置这个？</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>每天按日期生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>index</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
@@ -5087,16 +5433,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>172528</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>496378</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>54454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5120,8 +5466,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5486400" y="171450"/>
-          <a:ext cx="5124450" cy="2943225"/>
+          <a:off x="5762445" y="189781"/>
+          <a:ext cx="4671563" cy="2814907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5663,15 +6009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>557482</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>23902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>586057</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121129</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5680,8 +6026,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="2390775"/>
-          <a:ext cx="2085975" cy="619125"/>
+          <a:off x="1178584" y="2154627"/>
+          <a:ext cx="1891881" cy="588932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5729,7 +6075,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5771,7 +6117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5806,7 +6152,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6015,14 +6361,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="K22:M24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L23:M23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6034,11 +6415,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6051,10 +6432,10 @@
   <dimension ref="K1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
@@ -6068,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="11:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="11:12" ht="14.3" x14ac:dyDescent="0.25">
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
@@ -6169,10 +6550,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flume-es-kibana.xlsx
+++ b/flume-es-kibana.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3016" yWindow="109" windowWidth="14808" windowHeight="8015" activeTab="3"/>
+    <workbookView xWindow="4863" yWindow="109" windowWidth="14808" windowHeight="8015"/>
   </bookViews>
   <sheets>
     <sheet name="流程图" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
     <t>topic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -343,16 +347,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215660</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>8985</xdr:rowOff>
+      <xdr:rowOff>34865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>440846</xdr:colOff>
+      <xdr:colOff>173427</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>138023</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -361,8 +365,113 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3867150" y="3095085"/>
-          <a:ext cx="2696" cy="438690"/>
+          <a:off x="2700068" y="2985099"/>
+          <a:ext cx="578868" cy="430962"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57510</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>392862</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1920816" y="3469078"/>
+          <a:ext cx="956454" cy="598457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ElasticSearch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>443543</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>453067</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35944</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3549052" y="3005228"/>
+          <a:ext cx="9524" cy="472656"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -391,120 +500,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>583721</xdr:colOff>
+      <xdr:colOff>567367</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>18510</xdr:rowOff>
+      <xdr:rowOff>43492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>297972</xdr:colOff>
+      <xdr:colOff>281618</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>125262</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3068129" y="3460450"/>
-          <a:ext cx="956454" cy="598457"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ElasticSearch</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>469422</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>20487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>478946</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1437</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3898422" y="4306737"/>
-          <a:ext cx="9524" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>593246</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>8985</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>307497</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>115737</xdr:rowOff>
+      <xdr:rowOff>150244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -513,7 +517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3077654" y="4598238"/>
+          <a:off x="3051775" y="3485432"/>
           <a:ext cx="956454" cy="598457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1441,16 +1445,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>218715</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>261848</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>70090</xdr:rowOff>
+      <xdr:rowOff>87343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>280178</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323311</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>31091</xdr:rowOff>
+      <xdr:rowOff>48344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1459,8 +1463,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2276115" y="3670540"/>
-          <a:ext cx="747263" cy="303901"/>
+          <a:off x="882950" y="3529283"/>
+          <a:ext cx="682565" cy="288804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1500,15 +1504,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>515429</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7188</xdr:rowOff>
+      <xdr:colOff>489550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>113940</xdr:rowOff>
+      <xdr:colOff>203801</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1517,8 +1521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4630229" y="4807788"/>
-          <a:ext cx="1085851" cy="621102"/>
+          <a:off x="4216161" y="3483635"/>
+          <a:ext cx="956455" cy="598457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1556,16 +1560,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>458279</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>159588</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>475532</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>21566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>172530</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>189783</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>94890</xdr:rowOff>
+      <xdr:rowOff>120770</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1574,8 +1578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1829879" y="4788738"/>
-          <a:ext cx="1085851" cy="621102"/>
+          <a:off x="1096634" y="4610819"/>
+          <a:ext cx="956455" cy="590909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1614,16 +1618,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>430782</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>63980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487932</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>130655</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1632,8 +1636,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2600325" y="4324350"/>
-          <a:ext cx="742950" cy="409575"/>
+          <a:off x="1672986" y="4161527"/>
+          <a:ext cx="678252" cy="394479"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1662,15 +1666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>193197</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>221771</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1679,8 +1683,160 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333876" y="4343400"/>
-          <a:ext cx="714374" cy="409575"/>
+          <a:off x="3919808" y="3041891"/>
+          <a:ext cx="649676" cy="394479"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>397535</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>34866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>407059</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3503044" y="4132413"/>
+          <a:ext cx="9524" cy="472656"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>573118</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>75123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>287369</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>17973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057526" y="4664376"/>
+          <a:ext cx="956454" cy="598457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>mysql</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>336431</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>187625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4063042" y="4164043"/>
+          <a:ext cx="472296" cy="407957"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6361,15 +6517,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K22:M24"/>
+  <dimension ref="I22:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="22" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="9:13" x14ac:dyDescent="0.15">
       <c r="K22" t="s">
         <v>25</v>
       </c>
@@ -6380,7 +6536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="9:13" x14ac:dyDescent="0.15">
       <c r="K23" t="s">
         <v>26</v>
       </c>
@@ -6389,7 +6545,7 @@
       </c>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="9:13" x14ac:dyDescent="0.15">
       <c r="K24" t="s">
         <v>27</v>
       </c>
@@ -6398,6 +6554,11 @@
       </c>
       <c r="M24" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="9:13" x14ac:dyDescent="0.15">
+      <c r="I29" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6549,8 +6710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>

--- a/flume-es-kibana.xlsx
+++ b/flume-es-kibana.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4863" yWindow="109" windowWidth="14808" windowHeight="8015"/>
+    <workbookView xWindow="5787" yWindow="109" windowWidth="14808" windowHeight="8015"/>
   </bookViews>
   <sheets>
     <sheet name="流程图" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,10 +190,6 @@
   </si>
   <si>
     <t>topic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6517,15 +6513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I22:M29"/>
+  <dimension ref="K22:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="22" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K22" t="s">
         <v>25</v>
       </c>
@@ -6536,7 +6532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K23" t="s">
         <v>26</v>
       </c>
@@ -6545,7 +6541,7 @@
       </c>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K24" t="s">
         <v>27</v>
       </c>
@@ -6554,11 +6550,6 @@
       </c>
       <c r="M24" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="9:13" x14ac:dyDescent="0.15">
-      <c r="I29" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
